--- a/output1.xlsx
+++ b/output1.xlsx
@@ -14,30 +14,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>Names</t>
-  </si>
-  <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>Andreas</t>
-  </si>
-  <si>
-    <t>George</t>
-  </si>
-  <si>
-    <t>Steve</t>
-  </si>
-  <si>
-    <t>Sarah</t>
-  </si>
-  <si>
-    <t>Joanna</t>
-  </si>
-  <si>
-    <t>Hanna</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>Job Code</t>
+  </si>
+  <si>
+    <t>Processing Time</t>
+  </si>
+  <si>
+    <t>Due Date</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>Finish</t>
+  </si>
+  <si>
+    <t>Tardiness</t>
+  </si>
+  <si>
+    <t>J5</t>
+  </si>
+  <si>
+    <t>J2</t>
+  </si>
+  <si>
+    <t>J3</t>
+  </si>
+  <si>
+    <t>J6</t>
+  </si>
+  <si>
+    <t>J1</t>
+  </si>
+  <si>
+    <t>j4</t>
   </si>
 </sst>
 </file>
@@ -395,66 +407,150 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>20</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>12</v>
+      </c>
+      <c r="F2">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>24</v>
+      </c>
+      <c r="C3">
+        <v>25</v>
+      </c>
+      <c r="D3">
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <v>36</v>
+      </c>
+      <c r="F3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>30</v>
+      </c>
+      <c r="D4">
+        <v>36</v>
+      </c>
+      <c r="E4">
+        <v>45</v>
+      </c>
+      <c r="F4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>17</v>
+      </c>
+      <c r="C5">
+        <v>30</v>
+      </c>
+      <c r="D5">
+        <v>45</v>
+      </c>
+      <c r="E5">
+        <v>62</v>
+      </c>
+      <c r="F5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>35</v>
+      </c>
+      <c r="D6">
+        <v>62</v>
+      </c>
+      <c r="E6">
+        <v>72</v>
+      </c>
+      <c r="F6">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
         <v>6</v>
       </c>
-      <c r="B6">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>23</v>
+      <c r="C7">
+        <v>40</v>
+      </c>
+      <c r="D7">
+        <v>72</v>
+      </c>
+      <c r="E7">
+        <v>78</v>
+      </c>
+      <c r="F7">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
